--- a/Seminar/20171010/result.xlsx
+++ b/Seminar/20171010/result.xlsx
@@ -336,7 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -356,6 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -386,64 +387,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>circulate</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -778,11 +722,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136249296"/>
-        <c:axId val="2136252624"/>
+        <c:axId val="-2141602464"/>
+        <c:axId val="-2141599136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136249296"/>
+        <c:axId val="-2141602464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +769,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136252624"/>
+        <c:crossAx val="-2141599136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -833,7 +777,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136252624"/>
+        <c:axId val="-2141599136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +828,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136249296"/>
+        <c:crossAx val="-2141602464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -979,64 +923,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>create</a:t>
-            </a:r>
-            <a:endParaRPr lang="ko-KR" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1475,11 +1362,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2136361168"/>
-        <c:axId val="2136364640"/>
+        <c:axId val="-2142638880"/>
+        <c:axId val="-2142635408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2136361168"/>
+        <c:axId val="-2142638880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1522,7 +1409,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136364640"/>
+        <c:crossAx val="-2142635408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1530,7 +1417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2136364640"/>
+        <c:axId val="-2142635408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1468,3531 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136361168"/>
+        <c:crossAx val="-2142638880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$29,시트1!$H$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.8452985E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3802985E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] unix_stream_read_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$A$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.4294175E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _int_malloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$31,시트1!$H$30)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.2300225E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.65045E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XVIDtoVisual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.87396E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] 0x000000000000bc7d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$A$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.845475E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] __memcpy_avx_unaligned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$24,시트1!$H$31)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4697375E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] common_file_perm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$24,시트1!$H$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2046925E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetScanlinePad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$24,시트1!$H$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8191725E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$26,시트1!$I$26)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$34,시트1!$H$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.759314E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75279625E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2116942720"/>
+        <c:axId val="2116946048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2116942720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116946048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2116946048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2116942720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$41,시트1!$H$41)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.00953125E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7167715E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _int_malloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$42,시트1!$H$44)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.184375E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1075375E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetRequest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$43,시트1!$H$43)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.24375E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1747275E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] copy_user_generic_unrolled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$44,시트1!$H$42)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.784375E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3427025E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] unix_stream_read_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$45,시트1!$H$45)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3.259375E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.82198E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$38,시트1!$I$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$46,시트1!$H$46)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.01325E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.83603375E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2142575376"/>
+        <c:axId val="-2142572032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2142575376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142572032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142572032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142575376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$50,시트1!$I$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$53,시트1!$H$53)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.8507205E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8653055E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] finish_task_switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$50,시트1!$I$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.39756E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] XMoveWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$50,시트1!$I$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$55,시트1!$H$57)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.29029E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.72435E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] copy_user_generic_unrolled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$50,시트1!$I$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$56,시트1!$H$54)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.228775E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.07468E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetRequest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$A$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.654635E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] 0x000000000000bc7d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$48,시트1!$H$55)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.802245E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] unix_stream_read_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$48,시트1!$H$56)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.74804E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$58,시트1!$H$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.14971535E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.644763E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2142505344"/>
+        <c:axId val="-2142501872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2142505344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142501872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142501872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142505344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$65,시트1!$H$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.0702315E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.04177375E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] XResizeWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$66,시트1!$H$67)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.277133E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.33419E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetRequest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$67,시트1!$H$68)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.098513E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1582E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] copy_user_generic_unrolled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$68,시트1!$H$66)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.94859E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.17599E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] finish_task_switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$69,시트1!$H$69)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.32342E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.081505E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$B$62,시트1!$I$62)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$A$70,시트1!$H$70)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1.5164838E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1713883E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2142449984"/>
+        <c:axId val="-2142446640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2142449984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142446640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142446640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2142449984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$46,시트1!$F$46)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4665</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.603214764101801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$41,시트1!$F$41)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.4594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.601000892990028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] copy_user_generic_unrolled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$42,시트1!$F$44)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0225293942550975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetRequest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$43,시트1!$F$43)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0252641762166989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _int_malloc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$44,시트1!$F$42)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.030863967852359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] unix_stream_read_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$38,시트1!$B$38)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$45,시트1!$F$45)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0194039291561244</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2141508848"/>
+        <c:axId val="-2141505440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2141508848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141505440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141505440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141508848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>기타</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$58,시트1!$F$58)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.6454</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.970633474039679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] __lock_text_start</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$53,시트1!$F$53)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.578363908822288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] copy_user_generic_unrolled</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$54,시트1!$F$56)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0441433094132545</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] 0x000000000000bc7d</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$55,시트1!$J$60)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0321</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$56</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] unix_stream_read_generic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$56,시트1!$J$60)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="0.00%">
+                  <c:v>0.0232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$L$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] XMoveWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$I$57,시트1!$F$55)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0446626424651752</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[k] finish_task_switch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$60,시트1!$F$54)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0540106373997467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$57</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>[.] _XGetRequest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(시트1!$I$50,시트1!$B$50)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>wayland</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>xwindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(시트1!$J$60,시트1!$F$57)</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0392962009286619</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="-2141433168"/>
+        <c:axId val="-2141429696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2141433168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141429696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141429696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2141433168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1742,6 +5153,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2248,6 +5899,3036 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2787,15 +9468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>445975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>60843</xdr:rowOff>
+      <xdr:colOff>401673</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>930348</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>88605</xdr:rowOff>
+      <xdr:colOff>886046</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>191978</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2809,6 +9490,186 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>460742</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>119910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>132905</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>236279</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>445977</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>162442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>738374</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160669</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>443024</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>178981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>694069</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="차트 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313071</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>16539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85652</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177208</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="차트 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1102439</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590304</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>93332</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="차트 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1084696</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>827809</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>192347</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="차트 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3080,15 +9941,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47:E48"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" style="5"/>
     <col min="3" max="3" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
@@ -3101,7 +9962,7 @@
     <col min="13" max="16384" width="10.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3117,7 +9978,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
@@ -3133,11 +9994,15 @@
       </c>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="L3" s="6"/>
+      <c r="M3" s="5">
+        <f>C2/J2</f>
+        <v>0.98035522066738423</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -3168,8 +10033,12 @@
       <c r="L4" s="6" t="s">
         <v>6</v>
       </c>
+      <c r="M4" s="5">
+        <f>C14/J14</f>
+        <v>0.92326732673267331</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <f>$C$2*B5</f>
         <v>760111950</v>
@@ -3202,8 +10071,12 @@
       <c r="L5" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="M5" s="5">
+        <f>C26/J26</f>
+        <v>1.1821954762398839</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <f t="shared" ref="A6:A9" si="0">$C$2*B6</f>
         <v>87978450</v>
@@ -3236,8 +10109,12 @@
       <c r="L6" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="M6" s="16">
+        <f>C38/J38</f>
+        <v>1.302277124572109</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>81147825</v>
@@ -3270,8 +10147,12 @@
       <c r="L7" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="M7" s="5">
+        <f>C50/J50</f>
+        <v>1.7311101730688054</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>74590425</v>
@@ -3304,8 +10185,12 @@
       <c r="L8" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="M8" s="5">
+        <f>C62/J62</f>
+        <v>1.1644826911793467</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <f t="shared" si="0"/>
         <v>70492050</v>
@@ -3340,8 +10225,12 @@
       <c r="L9" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="M9" s="5">
+        <f>SUM(M3:M8) /6</f>
+        <v>1.2139480020767006</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f>C2-SUM(A5:A9)</f>
         <v>1657929300</v>
@@ -3351,12 +10240,12 @@
         <v>1415796000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J11" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="23" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -3372,7 +10261,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>18</v>
@@ -3388,11 +10277,11 @@
       </c>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -3604,6 +10493,12 @@
       <c r="H22" s="16">
         <f>J14-SUM(H17:H21)</f>
         <v>401374000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I24" s="17"/>
+      <c r="J24" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="23" x14ac:dyDescent="0.3">
@@ -3856,6 +10751,12 @@
         <v>375279625</v>
       </c>
     </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E35" s="5">
+        <f>A41/H41*100</f>
+        <v>130.82300674576149</v>
+      </c>
+    </row>
     <row r="37" spans="1:12" ht="23" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>31</v>
@@ -3941,6 +10842,10 @@
       <c r="E41" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F41" s="7">
+        <f>A41/$J$38</f>
+        <v>0.60100089299002823</v>
+      </c>
       <c r="H41" s="5">
         <f>$J$38*I41</f>
         <v>771677150</v>
@@ -3975,8 +10880,12 @@
       <c r="E42" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F42" s="7">
+        <f t="shared" ref="F42:F46" si="7">A42/$J$38</f>
+        <v>3.0863967852358981E-2</v>
+      </c>
       <c r="H42" s="5">
-        <f t="shared" ref="H42:H45" si="7">$J$38*I42</f>
+        <f t="shared" ref="H42:H45" si="8">$J$38*I42</f>
         <v>33427025</v>
       </c>
       <c r="I42" s="7">
@@ -4009,8 +10918,12 @@
       <c r="E43" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F43" s="7">
+        <f t="shared" si="7"/>
+        <v>2.5264176216698915E-2</v>
+      </c>
       <c r="H43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31747275</v>
       </c>
       <c r="I43" s="7">
@@ -4043,8 +10956,12 @@
       <c r="E44" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F44" s="7">
+        <f t="shared" si="7"/>
+        <v>2.2529394255097486E-2</v>
+      </c>
       <c r="H44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>31075375</v>
       </c>
       <c r="I44" s="7">
@@ -4077,10 +10994,13 @@
       <c r="E45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="12"/>
+      <c r="F45" s="7">
+        <f t="shared" si="7"/>
+        <v>1.9403929156124423E-2</v>
+      </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28219800</v>
       </c>
       <c r="I45" s="11">
@@ -4101,9 +11021,25 @@
         <f>C38-SUM(A41:A45)</f>
         <v>1013250000</v>
       </c>
+      <c r="F46" s="7">
+        <f t="shared" si="7"/>
+        <v>0.60321476410180086</v>
+      </c>
       <c r="H46" s="16">
         <f>J38-SUM(H41:H45)</f>
         <v>783603375</v>
+      </c>
+      <c r="I46" s="7">
+        <f>H46/J38</f>
+        <v>0.46650000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F47" s="17"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J48" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="23" x14ac:dyDescent="0.3">
@@ -4191,6 +11127,10 @@
       <c r="E53" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="F53" s="7">
+        <f>A53/$J$50</f>
+        <v>0.57836390882228783</v>
+      </c>
       <c r="H53" s="5">
         <f>$J$50*I53</f>
         <v>286530550</v>
@@ -4210,7 +11150,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" ref="A54:A57" si="8">$C$50*B54</f>
+        <f t="shared" ref="A54:A57" si="9">$C$50*B54</f>
         <v>63975600</v>
       </c>
       <c r="B54" s="7">
@@ -4225,8 +11165,12 @@
       <c r="E54" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="F54" s="7">
+        <f t="shared" ref="F54:F58" si="10">A54/$J$50</f>
+        <v>5.4010637399746729E-2</v>
+      </c>
       <c r="H54" s="5">
-        <f t="shared" ref="H54:H56" si="9">$J$50*I54</f>
+        <f t="shared" ref="H54:H56" si="11">$J$50*I54</f>
         <v>40746800</v>
       </c>
       <c r="I54" s="7">
@@ -4244,7 +11188,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52902900</v>
       </c>
       <c r="B55" s="7">
@@ -4259,8 +11203,12 @@
       <c r="E55" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="F55" s="7">
+        <f t="shared" si="10"/>
+        <v>4.4662642465175179E-2</v>
+      </c>
       <c r="H55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>38022449.999999993</v>
       </c>
       <c r="I55" s="7">
@@ -4278,7 +11226,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52287750</v>
       </c>
       <c r="B56" s="7">
@@ -4293,8 +11241,12 @@
       <c r="E56" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="F56" s="7">
+        <f t="shared" si="10"/>
+        <v>4.414330941325454E-2</v>
+      </c>
       <c r="H56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>27480399.999999996</v>
       </c>
       <c r="I56" s="7">
@@ -4312,7 +11264,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46546350</v>
       </c>
       <c r="B57" s="11">
@@ -4327,7 +11279,10 @@
       <c r="E57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="12"/>
+      <c r="F57" s="7">
+        <f t="shared" si="10"/>
+        <v>3.929620092866188E-2</v>
+      </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12">
         <f>$J$50*I57</f>
@@ -4344,6 +11299,32 @@
       </c>
       <c r="L57" s="14" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="15">
+        <f>C50-SUM(A53:A57)</f>
+        <v>1149715350</v>
+      </c>
+      <c r="F58" s="7">
+        <f t="shared" si="10"/>
+        <v>0.97063347403967914</v>
+      </c>
+      <c r="H58" s="16">
+        <f>J50-SUM(H53:H57)</f>
+        <v>764476300</v>
+      </c>
+      <c r="I58" s="7">
+        <f>H58/J50</f>
+        <v>0.64539999999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J60" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="23" x14ac:dyDescent="0.3">
@@ -4450,7 +11431,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" ref="A66:A69" si="10">$C$62*B66</f>
+        <f t="shared" ref="A66:A69" si="12">$C$62*B66</f>
         <v>127713300</v>
       </c>
       <c r="B66" s="7">
@@ -4466,7 +11447,7 @@
         <v>41</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H69" si="11">$J$62*I66</f>
+        <f t="shared" ref="H66:H69" si="13">$J$62*I66</f>
         <v>117599000</v>
       </c>
       <c r="I66" s="7">
@@ -4484,7 +11465,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>109851300</v>
       </c>
       <c r="B67" s="7">
@@ -4500,7 +11481,7 @@
         <v>11</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>83341899.999999985</v>
       </c>
       <c r="I67" s="7">
@@ -4518,7 +11499,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>79485900</v>
       </c>
       <c r="B68" s="7">
@@ -4534,7 +11515,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>71582000</v>
       </c>
       <c r="I68" s="7">
@@ -4552,7 +11533,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>73234200</v>
       </c>
       <c r="B69" s="11">
@@ -4570,7 +11551,7 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70815050</v>
       </c>
       <c r="I69" s="11">

--- a/Seminar/20171010/result.xlsx
+++ b/Seminar/20171010/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="54">
   <si>
     <t>circulate</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -183,6 +183,38 @@
     <t>[.] 0x000000000000bc7d</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[k] __lock_text_start</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X Window</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wayland</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -331,8 +363,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -358,10 +396,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -722,11 +766,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2141602464"/>
-        <c:axId val="-2141599136"/>
+        <c:axId val="2126131024"/>
+        <c:axId val="-2142828944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141602464"/>
+        <c:axId val="2126131024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,7 +813,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141599136"/>
+        <c:crossAx val="-2142828944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -777,7 +821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141599136"/>
+        <c:axId val="-2142828944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -828,7 +872,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141602464"/>
+        <c:crossAx val="2126131024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,11 +1406,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142638880"/>
-        <c:axId val="-2142635408"/>
+        <c:axId val="-2142737936"/>
+        <c:axId val="-2142734464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142638880"/>
+        <c:axId val="-2142737936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1409,7 +1453,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142635408"/>
+        <c:crossAx val="-2142734464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1417,7 +1461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142635408"/>
+        <c:axId val="-2142734464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1512,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142638880"/>
+        <c:crossAx val="-2142737936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1618,7 +1662,7 @@
                   <c:v>4.8452985E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.3802985E8</c:v>
+                  <c:v>7.9928985E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,7 +1770,7 @@
                   <c:v>4.2300225E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.65045E7</c:v>
+                  <c:v>2.87045E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1926,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4697375E7</c:v>
+                  <c:v>2.6747375E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1938,7 +1982,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2046925E7</c:v>
+                  <c:v>2.3876925E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,7 +2038,7 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.8191725E7</c:v>
+                  <c:v>1.9701725E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2040,7 +2084,7 @@
                   <c:v>7.759314E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.75279625E8</c:v>
+                  <c:v>4.06429625E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2056,11 +2100,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2116942720"/>
-        <c:axId val="2116946048"/>
+        <c:axId val="-2142666432"/>
+        <c:axId val="-2142663104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2116942720"/>
+        <c:axId val="-2142666432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2147,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116946048"/>
+        <c:crossAx val="-2142663104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2116946048"/>
+        <c:axId val="-2142663104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2162,7 +2206,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2116942720"/>
+        <c:crossAx val="-2142666432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2590,11 +2634,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142575376"/>
-        <c:axId val="-2142572032"/>
+        <c:axId val="-2141758304"/>
+        <c:axId val="-2141754960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142575376"/>
+        <c:axId val="-2141758304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2681,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142572032"/>
+        <c:crossAx val="-2141754960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2645,7 +2689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142572032"/>
+        <c:axId val="-2141754960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,7 +2740,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142575376"/>
+        <c:crossAx val="-2141758304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2710,6 +2754,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3173,11 +3218,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142505344"/>
-        <c:axId val="-2142501872"/>
+        <c:axId val="2126174704"/>
+        <c:axId val="2126178176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142505344"/>
+        <c:axId val="2126174704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,7 +3265,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142501872"/>
+        <c:crossAx val="2126178176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3228,7 +3273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142501872"/>
+        <c:axId val="2126178176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3279,7 +3324,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142505344"/>
+        <c:crossAx val="2126174704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,6 +3338,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3428,7 +3474,7 @@
                   <c:v>1.0702315E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.04177375E9</c:v>
+                  <c:v>1.12327375E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3482,7 +3528,7 @@
                   <c:v>1.277133E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.33419E7</c:v>
+                  <c:v>8.98619E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3536,7 +3582,7 @@
                   <c:v>1.098513E8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.1582E7</c:v>
+                  <c:v>7.7182E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3590,7 +3636,7 @@
                   <c:v>7.94859E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.17599E8</c:v>
+                  <c:v>1.26799E8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3644,7 +3690,7 @@
                   <c:v>7.32342E7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.081505E7</c:v>
+                  <c:v>7.635505E7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3690,7 +3736,7 @@
                   <c:v>1.5164838E9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1713883E9</c:v>
+                  <c:v>1.2630283E9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3706,11 +3752,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2142449984"/>
-        <c:axId val="-2142446640"/>
+        <c:axId val="-2142594256"/>
+        <c:axId val="-2142590912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142449984"/>
+        <c:axId val="-2142594256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3753,7 +3799,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142446640"/>
+        <c:crossAx val="-2142590912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3761,7 +3807,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142446640"/>
+        <c:axId val="-2142590912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3812,7 +3858,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142449984"/>
+        <c:crossAx val="-2142594256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4240,11 +4286,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2141508848"/>
-        <c:axId val="-2141505440"/>
+        <c:axId val="-2141705728"/>
+        <c:axId val="-2141702352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141508848"/>
+        <c:axId val="-2141705728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4287,7 +4333,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141505440"/>
+        <c:crossAx val="-2141702352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4295,7 +4341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141505440"/>
+        <c:axId val="-2141702352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4392,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141508848"/>
+        <c:crossAx val="-2141705728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4886,11 +4932,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2141433168"/>
-        <c:axId val="-2141429696"/>
+        <c:axId val="-2141604656"/>
+        <c:axId val="-2141601184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141433168"/>
+        <c:axId val="-2141604656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,7 +4979,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141429696"/>
+        <c:crossAx val="-2141601184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4941,7 +4987,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141429696"/>
+        <c:axId val="-2141601184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4992,7 +5038,381 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141433168"/>
+        <c:crossAx val="-2141604656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>X Window</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>시트1!$C$74:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>create</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>destroy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>circulate</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>resize</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>popup</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>move</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$D$74:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.325E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.42425E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.73225E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.977E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1875E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0505E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>시트1!$E$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wayland</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>시트1!$C$74:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>create</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>destroy</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>circulate</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>resize</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>popup</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>move</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>시트1!$E$74:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.01E9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.30475E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.787E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7565E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.67975E9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1845E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2125210880"/>
+        <c:axId val="-2124660720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2125210880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124660720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124660720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125210880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5393,6 +5813,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -9401,6 +9861,509 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9617,16 +10580,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1102439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14433</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14431</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>590304</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>460418</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>93332</xdr:rowOff>
+      <xdr:rowOff>122195</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9648,15 +10611,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>1084696</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>165099</xdr:rowOff>
+      <xdr:colOff>2109355</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>827809</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>192347</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>899968</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>206778</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9670,6 +10633,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>210705</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>158173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>72737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="차트 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9941,10 +10934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -9956,7 +10949,8 @@
     <col min="5" max="5" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" style="5"/>
     <col min="8" max="8" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="5"/>
+    <col min="9" max="9" width="10.7109375" style="5"/>
+    <col min="10" max="10" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="10.7109375" style="5"/>
@@ -10073,7 +11067,7 @@
       </c>
       <c r="M5" s="5">
         <f>C26/J26</f>
-        <v>1.1821954762398839</v>
+        <v>1.0915884269017053</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -10187,7 +11181,7 @@
       </c>
       <c r="M8" s="5">
         <f>C62/J62</f>
-        <v>1.1644826911793467</v>
+        <v>1.0799927444222746</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -10227,7 +11221,7 @@
       </c>
       <c r="M9" s="5">
         <f>SUM(M3:M8) /6</f>
-        <v>1.2139480020767006</v>
+        <v>1.1847651693941588</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -10235,9 +11229,29 @@
         <f>C2-SUM(A5:A9)</f>
         <v>1657929300</v>
       </c>
+      <c r="B10" s="7">
+        <f>1 - SUM(B5:B9)</f>
+        <v>0.60680000000000001</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="9">
         <f>J2 - SUM(H5:H9)</f>
         <v>1415796000</v>
+      </c>
+      <c r="I10" s="7">
+        <f>1 - SUM(I5:I9)</f>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -10490,9 +11504,23 @@
         <f>C14-SUM(A17:A21)</f>
         <v>324043750</v>
       </c>
+      <c r="B22" s="7">
+        <f>1 - SUM(B17:B21)</f>
+        <v>0.34749999999999992</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="H22" s="16">
         <f>J14-SUM(H17:H21)</f>
         <v>401374000</v>
+      </c>
+      <c r="I22" s="7">
+        <f>1 - SUM(I17:I21)</f>
+        <v>0.39740000000000009</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -10529,7 +11557,7 @@
         <v>15</v>
       </c>
       <c r="J26" s="5">
-        <v>1204750000</v>
+        <v>1304750000</v>
       </c>
       <c r="L26" s="6"/>
     </row>
@@ -10588,7 +11616,7 @@
       </c>
       <c r="H29" s="5">
         <f>$J$26*I29</f>
-        <v>738029850</v>
+        <v>799289850</v>
       </c>
       <c r="I29" s="7">
         <v>0.61260000000000003</v>
@@ -10622,7 +11650,7 @@
       </c>
       <c r="H30" s="5">
         <f t="shared" ref="H30:H33" si="5">$J$26*I30</f>
-        <v>26504500</v>
+        <v>28704500</v>
       </c>
       <c r="I30" s="7">
         <v>2.1999999999999999E-2</v>
@@ -10656,7 +11684,7 @@
       </c>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>24697375</v>
+        <v>26747375</v>
       </c>
       <c r="I31" s="7">
         <v>2.0500000000000001E-2</v>
@@ -10690,7 +11718,7 @@
       </c>
       <c r="H32" s="5">
         <f t="shared" si="5"/>
-        <v>22046925</v>
+        <v>23876925</v>
       </c>
       <c r="I32" s="7">
         <v>1.83E-2</v>
@@ -10726,7 +11754,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="12">
         <f t="shared" si="5"/>
-        <v>18191725</v>
+        <v>19701725</v>
       </c>
       <c r="I33" s="11">
         <v>1.5100000000000001E-2</v>
@@ -10746,9 +11774,29 @@
         <f>C26-SUM(A29:A33)</f>
         <v>775931400</v>
       </c>
+      <c r="B34" s="7">
+        <f>1 - SUM(B29:B33)</f>
+        <v>0.54479999999999995</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H34" s="16">
         <f>J26-SUM(H29:H33)</f>
-        <v>375279625</v>
+        <v>406429625</v>
+      </c>
+      <c r="I34" s="7">
+        <f>1 - SUM(I29:I33)</f>
+        <v>0.3115</v>
+      </c>
+      <c r="J34" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -10840,10 +11888,10 @@
         <v>8</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F41" s="7">
-        <f>A41/$J$38</f>
+        <f t="shared" ref="F41:F46" si="6">A41/$J$38</f>
         <v>0.60100089299002823</v>
       </c>
       <c r="H41" s="5">
@@ -10865,7 +11913,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
-        <f t="shared" ref="A42:A45" si="6">$C$38*B42</f>
+        <f>$C$38*B42</f>
         <v>51843750</v>
       </c>
       <c r="B42" s="7">
@@ -10881,11 +11929,11 @@
         <v>20</v>
       </c>
       <c r="F42" s="7">
-        <f t="shared" ref="F42:F46" si="7">A42/$J$38</f>
+        <f t="shared" si="6"/>
         <v>3.0863967852358981E-2</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" ref="H42:H45" si="8">$J$38*I42</f>
+        <f t="shared" ref="H42:H45" si="7">$J$38*I42</f>
         <v>33427025</v>
       </c>
       <c r="I42" s="7">
@@ -10903,7 +11951,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
-        <f t="shared" si="6"/>
+        <f>$C$38*B43</f>
         <v>42437500</v>
       </c>
       <c r="B43" s="7">
@@ -10919,11 +11967,11 @@
         <v>11</v>
       </c>
       <c r="F43" s="7">
+        <f t="shared" si="6"/>
+        <v>2.5264176216698915E-2</v>
+      </c>
+      <c r="H43" s="5">
         <f t="shared" si="7"/>
-        <v>2.5264176216698915E-2</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="8"/>
         <v>31747275</v>
       </c>
       <c r="I43" s="7">
@@ -10941,7 +11989,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
-        <f t="shared" si="6"/>
+        <f>$C$38*B44</f>
         <v>37843750</v>
       </c>
       <c r="B44" s="7">
@@ -10957,11 +12005,11 @@
         <v>14</v>
       </c>
       <c r="F44" s="7">
+        <f t="shared" si="6"/>
+        <v>2.2529394255097486E-2</v>
+      </c>
+      <c r="H44" s="5">
         <f t="shared" si="7"/>
-        <v>2.2529394255097486E-2</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="8"/>
         <v>31075375</v>
       </c>
       <c r="I44" s="7">
@@ -10979,7 +12027,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
-        <f t="shared" si="6"/>
+        <f>$C$38*B45</f>
         <v>32593750</v>
       </c>
       <c r="B45" s="11">
@@ -10995,12 +12043,12 @@
         <v>25</v>
       </c>
       <c r="F45" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.9403929156124423E-2</v>
       </c>
       <c r="G45" s="12"/>
       <c r="H45" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>28219800</v>
       </c>
       <c r="I45" s="11">
@@ -11021,8 +12069,15 @@
         <f>C38-SUM(A41:A45)</f>
         <v>1013250000</v>
       </c>
+      <c r="B46" s="7">
+        <f>1 - SUM(B41:B45)</f>
+        <v>0.46319999999999995</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F46" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.60321476410180086</v>
       </c>
       <c r="H46" s="16">
@@ -11150,7 +12205,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
-        <f t="shared" ref="A54:A57" si="9">$C$50*B54</f>
+        <f t="shared" ref="A54:A57" si="8">$C$50*B54</f>
         <v>63975600</v>
       </c>
       <c r="B54" s="7">
@@ -11166,11 +12221,11 @@
         <v>13</v>
       </c>
       <c r="F54" s="7">
-        <f t="shared" ref="F54:F58" si="10">A54/$J$50</f>
+        <f t="shared" ref="F54:F58" si="9">A54/$J$50</f>
         <v>5.4010637399746729E-2</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" ref="H54:H56" si="11">$J$50*I54</f>
+        <f t="shared" ref="H54:H56" si="10">$J$50*I54</f>
         <v>40746800</v>
       </c>
       <c r="I54" s="7">
@@ -11188,7 +12243,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>52902900</v>
       </c>
       <c r="B55" s="7">
@@ -11204,11 +12259,11 @@
         <v>34</v>
       </c>
       <c r="F55" s="7">
+        <f t="shared" si="9"/>
+        <v>4.4662642465175179E-2</v>
+      </c>
+      <c r="H55" s="5">
         <f t="shared" si="10"/>
-        <v>4.4662642465175179E-2</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" si="11"/>
         <v>38022449.999999993</v>
       </c>
       <c r="I55" s="7">
@@ -11226,7 +12281,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>52287750</v>
       </c>
       <c r="B56" s="7">
@@ -11242,11 +12297,11 @@
         <v>14</v>
       </c>
       <c r="F56" s="7">
+        <f t="shared" si="9"/>
+        <v>4.414330941325454E-2</v>
+      </c>
+      <c r="H56" s="5">
         <f t="shared" si="10"/>
-        <v>4.414330941325454E-2</v>
-      </c>
-      <c r="H56" s="5">
-        <f t="shared" si="11"/>
         <v>27480399.999999996</v>
       </c>
       <c r="I56" s="7">
@@ -11264,7 +12319,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>46546350</v>
       </c>
       <c r="B57" s="11">
@@ -11280,7 +12335,7 @@
         <v>11</v>
       </c>
       <c r="F57" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.929620092866188E-2</v>
       </c>
       <c r="G57" s="12"/>
@@ -11306,8 +12361,15 @@
         <f>C50-SUM(A53:A57)</f>
         <v>1149715350</v>
       </c>
+      <c r="B58" s="7">
+        <f>1 - SUM(B53:B57)</f>
+        <v>0.56069999999999998</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="F58" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.97063347403967914</v>
       </c>
       <c r="H58" s="16">
@@ -11355,7 +12417,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="5">
-        <v>2556500000</v>
+        <v>2756500000</v>
       </c>
       <c r="L62" s="6"/>
     </row>
@@ -11414,7 +12476,7 @@
       </c>
       <c r="H65" s="5">
         <f>$J$62*I65</f>
-        <v>1041773749.9999999</v>
+        <v>1123273750</v>
       </c>
       <c r="I65" s="7">
         <v>0.40749999999999997</v>
@@ -11431,7 +12493,7 @@
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
-        <f t="shared" ref="A66:A69" si="12">$C$62*B66</f>
+        <f t="shared" ref="A66:A69" si="11">$C$62*B66</f>
         <v>127713300</v>
       </c>
       <c r="B66" s="7">
@@ -11447,8 +12509,8 @@
         <v>41</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" ref="H66:H69" si="13">$J$62*I66</f>
-        <v>117599000</v>
+        <f t="shared" ref="H66:H69" si="12">$J$62*I66</f>
+        <v>126799000</v>
       </c>
       <c r="I66" s="7">
         <v>4.5999999999999999E-2</v>
@@ -11465,7 +12527,7 @@
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>109851300</v>
       </c>
       <c r="B67" s="7">
@@ -11481,8 +12543,8 @@
         <v>11</v>
       </c>
       <c r="H67" s="5">
-        <f t="shared" si="13"/>
-        <v>83341899.999999985</v>
+        <f t="shared" si="12"/>
+        <v>89861899.999999985</v>
       </c>
       <c r="I67" s="7">
         <v>3.2599999999999997E-2</v>
@@ -11499,7 +12561,7 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>79485900</v>
       </c>
       <c r="B68" s="7">
@@ -11515,8 +12577,8 @@
         <v>14</v>
       </c>
       <c r="H68" s="5">
-        <f t="shared" si="13"/>
-        <v>71582000</v>
+        <f t="shared" si="12"/>
+        <v>77182000</v>
       </c>
       <c r="I68" s="7">
         <v>2.8000000000000001E-2</v>
@@ -11533,7 +12595,7 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>73234200</v>
       </c>
       <c r="B69" s="11">
@@ -11551,8 +12613,8 @@
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
       <c r="H69" s="12">
-        <f t="shared" si="13"/>
-        <v>70815050</v>
+        <f t="shared" si="12"/>
+        <v>76355050</v>
       </c>
       <c r="I69" s="11">
         <v>2.7699999999999999E-2</v>
@@ -11572,14 +12634,109 @@
         <f>C62-SUM(A65:A69)</f>
         <v>1516483800</v>
       </c>
+      <c r="B70" s="7">
+        <f>1 - SUM(B65:B69)</f>
+        <v>0.50940000000000007</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="H70" s="16">
         <f>J62-SUM(H65:H69)</f>
-        <v>1171388300</v>
+        <v>1263028300</v>
+      </c>
+      <c r="I70" s="7">
+        <f>1 - SUM(I65:I69)</f>
+        <v>0.45820000000000005</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K70" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="5">
+        <v>932500000</v>
+      </c>
+      <c r="E74" s="5">
+        <v>1010000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C75" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1424250000</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1304750000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>2732250000</v>
+      </c>
+      <c r="E76" s="5">
+        <v>2787000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C77" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2977000000</v>
+      </c>
+      <c r="E77" s="5">
+        <v>2756500000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D78" s="5">
+        <v>2187500000</v>
+      </c>
+      <c r="E78" s="5">
+        <v>1679750000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="23" x14ac:dyDescent="0.3">
+      <c r="C79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D79" s="5">
+        <v>2050500000</v>
+      </c>
+      <c r="E79" s="5">
+        <v>1184500000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>